--- a/biology/Origine et évolution du vivant/Liste_des_genres_d'ichthyosaures/Liste_des_genres_d'ichthyosaures.xlsx
+++ b/biology/Origine et évolution du vivant/Liste_des_genres_d'ichthyosaures/Liste_des_genres_d'ichthyosaures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_genres_d%27ichthyosaures</t>
+          <t>Liste_des_genres_d'ichthyosaures</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste suivante comprend tous les genres qui sont inclus dans l'ordre des Ichthyosauria ou dans le taxon mère Ichthyopterygia.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_genres_d%27ichthyosaures</t>
+          <t>Liste_des_genres_d'ichthyosaures</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Portée et terminologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les conventions de nommage suivent le Code international de nomenclature zoologique. Les termes utilisés sont:
 « synonyme Junior »:  Un nom qui décrit un taxon précédemment publié sous un autre nom. Si deux ou plusieurs noms de genre ont été officiellement créés et que des spécimens-type sont ensuite affectés au même genre, le premier à être (chronologiquement) publié est le synonyme principal (senior) ; tous les autres seront des « synonymes juniors ». C’est le synonyme senior qui est généralement utilisé (sauf décision spéciale du CIZN), mais des synonymes juniors ne peuvent pas être à nouveau utilisés pour décrire un nouveau taxon. Les synonymes juniors sont souvent subjectifs, à moins que les genres décrits soient tous les deux basés sur le même spécimen-type.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_genres_d%27ichthyosaures</t>
+          <t>Liste_des_genres_d'ichthyosaures</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
